--- a/graph_generation/results_prelim/gpt3.5/level_1/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_1/k_0.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>prompt</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
@@ -47,22 +52,93 @@
     <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
-    <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm.
-1. Initialize a distance array to keep track of the shortest distance from node A to each node. Set the distance from A to A as 0 and all other distances as infinity.
-   Distance: [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-2. Create a set called unvisited to keep track of the unvisited nodes. Initially, add all nodes to the unvisited set.
-   Unvisited: [A, B, C, D, E, F, G, H, I, J]
-3. While the unvisited set is not empty:
-   a. Find the node with the minimum distance from A in the distance array. Let's call this node current.
-   b. Remove current from the unvisited set.
-   c. For each neighbor of current that is still in the unvisited set, calculate the distance from A to the neighbor through current. If this distance is smaller than the current distance in the distance array, update the distance array.
-   The algorithm continues until the unvisited set is empty.
-4. After running Dijkstra's algorithm using the given adjacency matrix, the final distance array would be:
-   Distance: [0, 1, 2, 3, 4, 5, 6, 7, 8, 9]
-So, the shortest path from node A to node J is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J.</t>
-  </si>
-  <si>
-    <t>Correct</t>
+    <t>To find the shortest path from node A to node J, we can use the breadth-first search (BFS) algorithm.
+Starting from node A, we explore all its neighboring nodes (nodes B and C). Then, we explore the neighboring nodes of B and C, and continue this process until we reach node J.
+The steps to find the shortest path are as follows:
+1. Create an empty queue and enqueue node A.
+2. Create an empty visited set to keep track of visited nodes.
+3. Create an empty parent dictionary to store the parent node for each visited node.
+4. While the queue is not empty, do the following:
+   - Dequeue a node from the queue.
+   - If the dequeued node is node J, we have found the shortest path.
+   - Otherwise, for each neighboring node of the dequeued node that has not been visited, do the following:
+     - Enqueue the neighboring node.
+     - Mark the neighboring node as visited.
+     - Set the parent of the neighboring node as the dequeued node in the parent dictionary.
+5. If we have reached this step, it means that there is no path from node A to node J.
+Using the adjacency matrix provided, we can implement the BFS algorithm to find the shortest path from node A to node J.</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 0/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+what is the shortest path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use Dijkstra's algorithm.
+1. Initialize an array `dist` with size 20 to keep track of the shortest distance from node A to each other node. Start by setting the distance from A to A as 0 and the distance from A to all other nodes as infinity.
+   dist = [0, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞]
+2. Initialize a set `visited` to keep track of the nodes we have visited. Start by adding node A to the set.
+   visited = {A}
+3. While the set `visited` does not contain all nodes:
+   - Find the node `u` in the set `visited` with the minimum distance from node A. This can be done by iterating through all nodes in the set and selecting the node with the minimum value in the `dist` array.
+   - Add the node `u` to the set of visited nodes.
+   - For each neighbor `v` of `u` that is not in the set `visited`:
+     - Calculate the new distance `new_dist` from node A to `v` through `u` by adding the value in the adjacency matrix for the connection between `u` and `v` to the distance from A to `u`.
+     - If `new_dist` is smaller than the current distance in the `dist` array for node `v`, update the `dist` array with the new distance.
+4. After the algorithm terminates, the shortest distance from node A to node T will be the value in the `dist` array for node T.
+In this case, the shortest path from node A to node T has a distance of 2.
+Note: The actual path from node A to node T will depend on the actual connections between the nodes in the graph.</t>
+  </si>
+  <si>
+    <t>Output: 1/20</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use Dijkstra's algorithm. 
+1. Start by setting the distance from node A to itself as 0, and all other distances as infinity. 
+   - Distance[A] = 0
+   - Distance[B] = infinity
+   - Distance[C] = infinity
+   ...
+   - Distance[T] = infinity
+2. Set the current node as A and mark it as visited. 
+3. For each neighbor of the current node, calculate the distance from A to that neighbor through the current node. If this distance is shorter than the previously recorded distance for that neighbor, update it. 
+   - For example, if current node is A and the neighbor is B: 
+     - Distance[B] = min(Distance[B], Distance[A] + 1) = min(infinity, 0 + 1) = 1
+   - Repeat this for all neighbors of the current node. 
+4. Once all neighbors of the current node have been updated, mark the current node as visited. 
+5. Select the unvisited node with the smallest distance as the new current node and repeat steps 3 to 5 until the destination node (T) is visited. 
+6. The shortest path from A to T can be found by backtracking from T to A using the recorded distances. 
+The step-by-step application of Dijkstra's algorithm to find the shortest path from A to T may be quite extensive to describe. Please let me know if a more detailed explanation is required.</t>
   </si>
 </sst>
 </file>
@@ -420,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,19 +515,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_1/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_1/k_0.xlsx
@@ -34,7 +34,7 @@
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-what is the shortest path from node A to node J?
+what is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0
@@ -52,31 +52,19 @@
     <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
-    <t>To find the shortest path from node A to node J, we can use the breadth-first search (BFS) algorithm.
-Starting from node A, we explore all its neighboring nodes (nodes B and C). Then, we explore the neighboring nodes of B and C, and continue this process until we reach node J.
-The steps to find the shortest path are as follows:
-1. Create an empty queue and enqueue node A.
-2. Create an empty visited set to keep track of visited nodes.
-3. Create an empty parent dictionary to store the parent node for each visited node.
-4. While the queue is not empty, do the following:
-   - Dequeue a node from the queue.
-   - If the dequeued node is node J, we have found the shortest path.
-   - Otherwise, for each neighboring node of the dequeued node that has not been visited, do the following:
-     - Enqueue the neighboring node.
-     - Mark the neighboring node as visited.
-     - Set the parent of the neighboring node as the dequeued node in the parent dictionary.
-5. If we have reached this step, it means that there is no path from node A to node J.
-Using the adjacency matrix provided, we can implement the BFS algorithm to find the shortest path from node A to node J.</t>
-  </si>
-  <si>
-    <t>Wrong</t>
-  </si>
-  <si>
-    <t>Output: 0/10</t>
+    <t>The shortest path from node A to node J can be found using any algorithm that solves the shortest path problem, such as Dijkstra's algorithm or Breadth-First Search (BFS). 
+Using BFS, the shortest path from A to J is as follows:
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>10/10</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-what is the shortest path from node A to node T?
+what is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
  A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -104,41 +92,80 @@
     <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
   </si>
   <si>
-    <t>To find the shortest path from node A to node T, we can use Dijkstra's algorithm.
-1. Initialize an array `dist` with size 20 to keep track of the shortest distance from node A to each other node. Start by setting the distance from A to A as 0 and the distance from A to all other nodes as infinity.
-   dist = [0, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞, ∞]
-2. Initialize a set `visited` to keep track of the nodes we have visited. Start by adding node A to the set.
-   visited = {A}
-3. While the set `visited` does not contain all nodes:
-   - Find the node `u` in the set `visited` with the minimum distance from node A. This can be done by iterating through all nodes in the set and selecting the node with the minimum value in the `dist` array.
-   - Add the node `u` to the set of visited nodes.
-   - For each neighbor `v` of `u` that is not in the set `visited`:
-     - Calculate the new distance `new_dist` from node A to `v` through `u` by adding the value in the adjacency matrix for the connection between `u` and `v` to the distance from A to `u`.
-     - If `new_dist` is smaller than the current distance in the `dist` array for node `v`, update the `dist` array with the new distance.
-4. After the algorithm terminates, the shortest distance from node A to node T will be the value in the `dist` array for node T.
-In this case, the shortest path from node A to node T has a distance of 2.
-Note: The actual path from node A to node T will depend on the actual connections between the nodes in the graph.</t>
-  </si>
-  <si>
-    <t>Output: 1/20</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node T, we can use Dijkstra's algorithm. 
-1. Start by setting the distance from node A to itself as 0, and all other distances as infinity. 
-   - Distance[A] = 0
-   - Distance[B] = infinity
-   - Distance[C] = infinity
-   ...
-   - Distance[T] = infinity
-2. Set the current node as A and mark it as visited. 
-3. For each neighbor of the current node, calculate the distance from A to that neighbor through the current node. If this distance is shorter than the previously recorded distance for that neighbor, update it. 
-   - For example, if current node is A and the neighbor is B: 
-     - Distance[B] = min(Distance[B], Distance[A] + 1) = min(infinity, 0 + 1) = 1
-   - Repeat this for all neighbors of the current node. 
-4. Once all neighbors of the current node have been updated, mark the current node as visited. 
-5. Select the unvisited node with the smallest distance as the new current node and repeat steps 3 to 5 until the destination node (T) is visited. 
-6. The shortest path from A to T can be found by backtracking from T to A using the recorded distances. 
-The step-by-step application of Dijkstra's algorithm to find the shortest path from A to T may be quite extensive to describe. Please let me know if a more detailed explanation is required.</t>
+    <t>To find the shortest path from node A to node T, we can use Dijkstra's algorithm. Dijkstra's algorithm calculates the shortest path from a starting node to all other nodes in a graph.
+We can initialize a distance array to keep track of the shortest distance from A to each node. We can also initialize a visited array to keep track of the visited nodes.
+1. Initialize the distance array with infinity values for all nodes except for node A, which is initialized with 0. Initialize the visited array with all false values.
+2. While there are unvisited nodes:
+   a. Find the node with the minimum distance value from the distance array that is not visited. Let's call this node "current".
+   b. Mark "current" as visited.
+   c. Update the distance values of the neighboring nodes of "current". If the distance value of a neighboring node is greater than the distance value of "current" plus the weight of the edge between "current" and the neighboring node, update the distance value of the neighboring node.
+3. Once all nodes have been visited, the distance array will contain the shortest distance from node A to each node.
+4. To find the shortest path from A to T, we can backtrack from T to A using the distance array. Starting from T, we can backtrack to the neighboring node with the minimum distance value until we reach node A. This will give us the sequence of nodes in the shortest path.
+So, we can implement the algorithm as follows:
+```python
+import sys
+def shortest_path(adj_matrix):
+    num_nodes = len(adj_matrix)
+    distance = [sys.maxsize] * num_nodes
+    visited = [False] * num_nodes
+    distance[0] = 0
+    for _ in range(num_nodes):
+        min_dist = sys.maxsize
+        min_index = 0
+        for i in range(num_nodes):
+            if distance[i] &lt; min_dist and not visited[i]:
+                min_dist = distance[i]
+                min_index = i
+        current = min_index
+        visited[current] = True
+        for i in range(num_nodes):
+            if adj_matrix[current][i] == 1:
+                if distance[current] + 1 &lt; distance[i]:
+                    distance[i] = distance[current] + 1
+    path = []
+    current = num_nodes - 1
+    path.append(chr(ord('A') + current))
+    while current != 0:
+        for i in range(num_nodes):
+            if adj_matrix[current][i] == 1 and distance[i] == distance[current] - 1:
+                path.append(chr(ord('A') + i))
+                current = i
+                break
+    path.reverse()
+    return path
+# Test case
+adj_matrix = [
+  [0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+  [1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+  [0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+  [0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+  [0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+  [0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+  [0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+  [0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+  [0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+  [0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+  [0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0],
+  [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0],
+  [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0],
+  [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0],
+  [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0],
+  [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0],
+  [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0],
+  [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0],
+  [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1],
+  [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0]
+]
+path = shortest_path(adj_matrix)
+print('-&gt;'.join(path))
+```
+Running the above code will output the shortest path from A to T: A-&gt;B-&gt;C-&gt;D-&gt;E-&gt;F-&gt;G-&gt;H-&gt;I-&gt;J-&gt;K-&gt;L-&gt;M-&gt;N-&gt;O-&gt;P-&gt;Q-&gt;R-&gt;S-&gt;T.</t>
+  </si>
+  <si>
+    <t>20/20</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node T is A B C D E F G H I J K L M N O P Q R S T.</t>
   </si>
 </sst>
 </file>
